--- a/metodos_numericos/clase9/assets/Libro1.xlsx
+++ b/metodos_numericos/clase9/assets/Libro1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="10297"/>
+    <workbookView windowWidth="26083" windowHeight="10297"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>x3</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
   </si>
 </sst>
 </file>
@@ -999,6 +1011,53 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>507365</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5849620" y="23495"/>
+          <a:ext cx="6901180" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1257,19 +1316,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:I26"/>
+  <dimension ref="B3:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99082568807339" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13.8623853211009"/>
     <col min="3" max="3" width="12.743119266055"/>
-    <col min="4" max="6" width="13.8623853211009"/>
-    <col min="7" max="7" width="12.743119266055"/>
-    <col min="8" max="8" width="13.8623853211009"/>
+    <col min="4" max="8" width="13.8623853211009"/>
     <col min="9" max="9" width="12.743119266055"/>
   </cols>
   <sheetData>
@@ -1277,7 +1334,6 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -1292,7 +1348,6 @@
       <c r="D4" s="2">
         <v>-0.2</v>
       </c>
-      <c r="E4"/>
       <c r="F4" s="2">
         <v>7.85</v>
       </c>
@@ -1430,7 +1485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:10">
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -1455,8 +1510,11 @@
       <c r="I23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="J23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" t="s">
         <v>11</v>
       </c>
@@ -1468,23 +1526,31 @@
         <v>2.61666666666667</v>
       </c>
       <c r="E24">
-        <f>$C$11*D24+$D$11*D25+$F$11</f>
-        <v>2.5175873015873</v>
+        <f>$C$11*D25+$D$11*D26+$F$11</f>
+        <v>2.99055650793651</v>
       </c>
       <c r="F24">
-        <f>$C$11*E24+$D$11*E25+$F$11</f>
-        <v>2.53439504459562</v>
+        <f>$C$11*E25+$D$11*E26+$F$11</f>
+        <v>3.00003189791081</v>
       </c>
       <c r="G24">
-        <f>$C$11*F24+$D$11*F25+$F$11</f>
-        <v>2.53496502531447</v>
+        <f>$C$11*F25+$D$11*F26+$F$11</f>
+        <v>3.00000035246928</v>
       </c>
       <c r="H24">
-        <f>$C$11*G24+$D$11*G25+$F$11</f>
-        <v>2.53498204950297</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <f>$C$11*G25+$D$11*G26+$F$11</f>
+        <v>2.99999999805557</v>
+      </c>
+      <c r="I24">
+        <f>$C$11*H25+$D$11*H26+$F$11</f>
+        <v>2.99999999998808</v>
+      </c>
+      <c r="J24">
+        <f>$C$11*I25+$D$11*I26+$F$11</f>
+        <v>3.00000000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -1497,22 +1563,30 @@
       </c>
       <c r="E25">
         <f>$B$12*E24+$D$12*D26+$F$12</f>
-        <v>-2.49286798185941</v>
+        <v>-2.49962468480726</v>
       </c>
       <c r="F25">
         <f>$B$12*F24+$D$12*E26+$F$12</f>
-        <v>-2.49272214258071</v>
+        <v>-2.49998799235305</v>
       </c>
       <c r="G25">
         <f>$B$12*G24+$D$12*F26+$F$12</f>
-        <v>-2.49275177011261</v>
+        <v>-2.50000003575461</v>
       </c>
       <c r="H25">
         <f>$B$12*H24+$D$12*G26+$F$12</f>
-        <v>-2.49275277154269</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+        <v>-2.50000000045605</v>
+      </c>
+      <c r="I25">
+        <f>$B$12*I24+$D$12*H26+$F$12</f>
+        <v>-2.49999999999772</v>
+      </c>
+      <c r="J25">
+        <f>$B$12*J24+$D$12*I26+$F$12</f>
+        <v>-2.49999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" t="s">
         <v>13</v>
       </c>
@@ -1525,23 +1599,171 @@
       </c>
       <c r="E26">
         <f>$B$13*E24+$C$13*E25+$F$13</f>
-        <v>7.01461502131519</v>
+        <v>7.00029081106576</v>
       </c>
       <c r="F26">
         <f>$B$13*F24+$C$13*F25+$F$13</f>
-        <v>7.01411370581052</v>
+        <v>6.99999928321561</v>
       </c>
       <c r="G26">
         <f>$B$13*G24+$C$13*G25+$F$13</f>
-        <v>7.01409601383831</v>
+        <v>6.99999998871083</v>
       </c>
       <c r="H26">
         <f>$B$13*H24+$C$13*H25+$F$13</f>
-        <v>7.01409548308406</v>
+        <v>7.00000000004921</v>
+      </c>
+      <c r="I26">
+        <f>$B$13*I24+$C$13*I25+$F$13</f>
+        <v>7.0000000000004</v>
+      </c>
+      <c r="J26">
+        <f>$B$13*J24+$C$13*J25+$F$13</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <f>ABS(D24)-ABS(C24)</f>
+        <v>2.61666666666667</v>
+      </c>
+      <c r="D30">
+        <f>ABS(E24)-ABS(D24)</f>
+        <v>0.373889841269841</v>
+      </c>
+      <c r="E30">
+        <f>ABS(F24)-ABS(E24)</f>
+        <v>0.00947538997430097</v>
+      </c>
+      <c r="F30">
+        <f>ABS(G24)-ABS(F24)</f>
+        <v>-3.15454415362737e-5</v>
+      </c>
+      <c r="G30">
+        <f>ABS(H24)-ABS(G24)</f>
+        <v>-3.54413704162226e-7</v>
+      </c>
+      <c r="H30">
+        <f>ABS(I24)-ABS(H24)</f>
+        <v>1.9325105959922e-9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <f>ABS(D25)-ABS(C25)</f>
+        <v>2.79452380952381</v>
+      </c>
+      <c r="D31">
+        <f>ABS(E25)-ABS(D25)</f>
+        <v>-0.294899124716554</v>
+      </c>
+      <c r="E31">
+        <f>ABS(F25)-ABS(E25)</f>
+        <v>0.000363307545794278</v>
+      </c>
+      <c r="F31">
+        <f>ABS(G25)-ABS(F25)</f>
+        <v>1.20434015555837e-5</v>
+      </c>
+      <c r="G31">
+        <f>ABS(H25)-ABS(G25)</f>
+        <v>-3.52985622953383e-8</v>
+      </c>
+      <c r="H31">
+        <f>ABS(I25)-ABS(H25)</f>
+        <v>-4.58323157204177e-10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <f>ABS(D26)-ABS(C26)</f>
+        <v>7.00560952380952</v>
+      </c>
+      <c r="D32">
+        <f>ABS(E26)-ABS(D26)</f>
+        <v>-0.00531871274376439</v>
+      </c>
+      <c r="E32">
+        <f>ABS(F26)-ABS(E26)</f>
+        <v>-0.000291527850144746</v>
+      </c>
+      <c r="F32">
+        <f>ABS(G26)-ABS(F26)</f>
+        <v>7.05495215136409e-7</v>
+      </c>
+      <c r="G32">
+        <f>ABS(H26)-ABS(G26)</f>
+        <v>1.13383817890167e-8</v>
+      </c>
+      <c r="H32">
+        <f>ABS(I26)-ABS(H26)</f>
+        <v>-4.88089568762007e-11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <f>MAX(C30:C32)</f>
+        <v>7.00560952380952</v>
+      </c>
+      <c r="D34">
+        <f>MAX(D30:D32)</f>
+        <v>0.373889841269841</v>
+      </c>
+      <c r="E34">
+        <f>MAX(E30:E32)</f>
+        <v>0.00947538997430097</v>
+      </c>
+      <c r="F34">
+        <f>MAX(F30:F32)</f>
+        <v>1.20434015555837e-5</v>
+      </c>
+      <c r="G34">
+        <f>MAX(G30:G32)</f>
+        <v>1.13383817890167e-8</v>
+      </c>
+      <c r="H34">
+        <f>MAX(H30:H32)</f>
+        <v>1.9325105959922e-9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>